--- a/data/preprocessed/data_standardization_for_nascreening_analysis/alraune_template/cw_T0_standardize_nascreening_alraune_template - Copy.xlsx
+++ b/data/preprocessed/data_standardization_for_nascreening_analysis/alraune_template/cw_T0_standardize_nascreening_alraune_template - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\preprocessed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\preprocessed\data_standardization_for_nascreening_analysis\alraune_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC6799-AA4A-4A77-AF59-A0F572A845AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B77D571-3F55-4BC9-8450-DA786648F1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="229">
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="228">
   <si>
     <t>mg/l</t>
   </si>
@@ -1041,31 +1038,31 @@
   <sheetData>
     <row r="1" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1103,25 +1100,25 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1157,648 +1154,648 @@
     </row>
     <row r="3" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="H5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s">
         <v>208</v>
-      </c>
-      <c r="B25" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1813,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1826,94 +1823,92 @@
   <sheetData>
     <row r="1" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>221</v>
       </c>
-      <c r="H1" t="s">
-        <v>222</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1925,36 +1920,36 @@
         <v>-83</v>
       </c>
       <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
       <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>54</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>7.19</v>
@@ -1966,36 +1961,36 @@
         <v>-138</v>
       </c>
       <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
       <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>7.01</v>
@@ -2007,36 +2002,36 @@
         <v>-132.5</v>
       </c>
       <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
         <v>71</v>
       </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
       <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
         <v>83</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>7.05</v>
@@ -2048,68 +2043,68 @@
         <v>-134</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
         <v>105</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>6.8</v>
@@ -2121,36 +2116,36 @@
         <v>-166</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
         <v>53</v>
       </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>54</v>
       </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>7.1</v>
@@ -2162,36 +2157,36 @@
         <v>-192</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>7.02</v>
@@ -2203,36 +2198,36 @@
         <v>-133</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
         <v>53</v>
       </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>54</v>
       </c>
-      <c r="M10" t="s">
-        <v>55</v>
-      </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>7.12</v>
@@ -2244,36 +2239,36 @@
         <v>-183.2</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
         <v>53</v>
       </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>54</v>
       </c>
-      <c r="M11" t="s">
-        <v>55</v>
-      </c>
       <c r="N11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>6.92</v>
@@ -2285,36 +2280,36 @@
         <v>-132</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
         <v>53</v>
       </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>54</v>
       </c>
-      <c r="M12" t="s">
-        <v>55</v>
-      </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>6.88</v>
@@ -2332,30 +2327,30 @@
         <v>3.7</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
         <v>53</v>
       </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>54</v>
       </c>
-      <c r="M13" t="s">
-        <v>55</v>
-      </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>6.9</v>
@@ -2367,36 +2362,36 @@
         <v>-118</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
         <v>53</v>
       </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>54</v>
       </c>
-      <c r="M14" t="s">
-        <v>55</v>
-      </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>7.09</v>
@@ -2408,36 +2403,36 @@
         <v>-164</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
         <v>53</v>
       </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>54</v>
       </c>
-      <c r="M15" t="s">
-        <v>55</v>
-      </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>6.9</v>
@@ -2449,36 +2444,36 @@
         <v>-132</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
         <v>53</v>
       </c>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>54</v>
       </c>
-      <c r="M16" t="s">
-        <v>55</v>
-      </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>6.91</v>
@@ -2490,36 +2485,36 @@
         <v>-128</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" t="s">
         <v>53</v>
       </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>54</v>
       </c>
-      <c r="M17" t="s">
-        <v>55</v>
-      </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>7.01</v>
@@ -2531,36 +2526,36 @@
         <v>-141</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
         <v>53</v>
       </c>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>54</v>
       </c>
-      <c r="M18" t="s">
-        <v>55</v>
-      </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>6.8</v>
@@ -2572,36 +2567,36 @@
         <v>-131</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
         <v>53</v>
       </c>
-      <c r="K19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>54</v>
       </c>
-      <c r="M19" t="s">
-        <v>55</v>
-      </c>
       <c r="N19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>6.9</v>
@@ -2610,36 +2605,36 @@
         <v>-109</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>54</v>
       </c>
-      <c r="M20" t="s">
-        <v>55</v>
-      </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>7.08</v>
@@ -2651,36 +2646,36 @@
         <v>-159</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" t="s">
         <v>53</v>
       </c>
-      <c r="K21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>54</v>
       </c>
-      <c r="M21" t="s">
-        <v>55</v>
-      </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>7.11</v>
@@ -2692,36 +2687,36 @@
         <v>-163</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" t="s">
         <v>178</v>
-      </c>
-      <c r="J22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>6.91</v>
@@ -2733,36 +2728,36 @@
         <v>-117</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" t="s">
         <v>53</v>
       </c>
-      <c r="K23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>54</v>
       </c>
-      <c r="M23" t="s">
-        <v>55</v>
-      </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>7.02</v>
@@ -2774,36 +2769,36 @@
         <v>-132</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" t="s">
         <v>53</v>
       </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>54</v>
       </c>
-      <c r="M24" t="s">
-        <v>55</v>
-      </c>
       <c r="N24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s">
         <v>208</v>
-      </c>
-      <c r="B25" t="s">
-        <v>209</v>
       </c>
       <c r="D25">
         <v>7.08</v>
@@ -2815,10 +2810,10 @@
         <v>-101</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
